--- a/Deniz Güncel Sahibinden.xlsx
+++ b/Deniz Güncel Sahibinden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emre\Desktop\Cursor\GaleriMerkezi\galeri-merkezi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D23AA94-2108-462B-A399-B8256708FD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDE6B9B-B762-4CF6-BC1E-5BA73F277A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4462" uniqueCount="455">
   <si>
     <t>Ana Kategori</t>
   </si>
@@ -1848,10 +1848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M508"/>
+  <dimension ref="A1:M498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C508"/>
+    <sheetView tabSelected="1" topLeftCell="A487" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G486" sqref="G486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>453</v>
       </c>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>453</v>
       </c>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>453</v>
       </c>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="M308" s="6"/>
     </row>
-    <row r="309" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="13" t="s">
         <v>453</v>
       </c>
@@ -13461,7 +13461,7 @@
       </c>
       <c r="M309" s="6"/>
     </row>
-    <row r="310" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="13" t="s">
         <v>453</v>
       </c>
@@ -13498,7 +13498,7 @@
       </c>
       <c r="M310" s="6"/>
     </row>
-    <row r="311" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="13" t="s">
         <v>453</v>
       </c>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="M311" s="6"/>
     </row>
-    <row r="312" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="13" t="s">
         <v>453</v>
       </c>
@@ -13572,7 +13572,7 @@
       </c>
       <c r="M312" s="6"/>
     </row>
-    <row r="313" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="13" t="s">
         <v>453</v>
       </c>
@@ -13609,7 +13609,7 @@
       </c>
       <c r="M313" s="6"/>
     </row>
-    <row r="314" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A314" s="13" t="s">
         <v>453</v>
       </c>
@@ -13646,7 +13646,7 @@
       </c>
       <c r="M314" s="6"/>
     </row>
-    <row r="315" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="13" t="s">
         <v>453</v>
       </c>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="M315" s="6"/>
     </row>
-    <row r="316" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="13" t="s">
         <v>453</v>
       </c>
@@ -13720,7 +13720,7 @@
       </c>
       <c r="M316" s="6"/>
     </row>
-    <row r="317" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="13" t="s">
         <v>453</v>
       </c>
@@ -13759,7 +13759,7 @@
       </c>
       <c r="M317" s="6"/>
     </row>
-    <row r="318" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="13" t="s">
         <v>453</v>
       </c>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="M318" s="6"/>
     </row>
-    <row r="319" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="13" t="s">
         <v>453</v>
       </c>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="M319" s="6"/>
     </row>
-    <row r="320" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="13" t="s">
         <v>453</v>
       </c>
@@ -13876,7 +13876,7 @@
       </c>
       <c r="M320" s="6"/>
     </row>
-    <row r="321" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="13" t="s">
         <v>453</v>
       </c>
@@ -13915,7 +13915,7 @@
       </c>
       <c r="M321" s="6"/>
     </row>
-    <row r="322" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="13" t="s">
         <v>453</v>
       </c>
@@ -13954,7 +13954,7 @@
       </c>
       <c r="M322" s="6"/>
     </row>
-    <row r="323" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="13" t="s">
         <v>453</v>
       </c>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="M323" s="6"/>
     </row>
-    <row r="324" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="13" t="s">
         <v>453</v>
       </c>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="M324" s="6"/>
     </row>
-    <row r="325" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="13" t="s">
         <v>453</v>
       </c>
@@ -14065,7 +14065,7 @@
       </c>
       <c r="M325" s="6"/>
     </row>
-    <row r="326" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="13" t="s">
         <v>453</v>
       </c>
@@ -14102,7 +14102,7 @@
       </c>
       <c r="M326" s="6"/>
     </row>
-    <row r="327" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="13" t="s">
         <v>453</v>
       </c>
@@ -14139,7 +14139,7 @@
       </c>
       <c r="M327" s="6"/>
     </row>
-    <row r="328" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="13" t="s">
         <v>453</v>
       </c>
@@ -14176,7 +14176,7 @@
       </c>
       <c r="M328" s="6"/>
     </row>
-    <row r="329" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="13" t="s">
         <v>453</v>
       </c>
@@ -14213,7 +14213,7 @@
       </c>
       <c r="M329" s="6"/>
     </row>
-    <row r="330" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="13" t="s">
         <v>453</v>
       </c>
@@ -14250,7 +14250,7 @@
       </c>
       <c r="M330" s="6"/>
     </row>
-    <row r="331" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="13" t="s">
         <v>453</v>
       </c>
@@ -14287,7 +14287,7 @@
       </c>
       <c r="M331" s="6"/>
     </row>
-    <row r="332" spans="1:13" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="13" t="s">
         <v>453</v>
       </c>
@@ -14324,7 +14324,7 @@
       </c>
       <c r="M332" s="6"/>
     </row>
-    <row r="333" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="13" t="s">
         <v>453</v>
       </c>
@@ -14361,7 +14361,7 @@
       </c>
       <c r="M333" s="6"/>
     </row>
-    <row r="334" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="13" t="s">
         <v>453</v>
       </c>
@@ -14400,7 +14400,7 @@
       </c>
       <c r="M334" s="6"/>
     </row>
-    <row r="335" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="13" t="s">
         <v>453</v>
       </c>
@@ -14437,17 +14437,25 @@
       </c>
       <c r="M335" s="6"/>
     </row>
-    <row r="336" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="13" t="s">
         <v>453</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
-      <c r="E336" s="3"/>
-      <c r="F336" s="3"/>
+      <c r="C336" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="G336" s="3"/>
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
@@ -14456,17 +14464,25 @@
       <c r="L336" s="5"/>
       <c r="M336" s="6"/>
     </row>
-    <row r="337" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="13" t="s">
         <v>453</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C337" s="2"/>
-      <c r="D337" s="2"/>
-      <c r="E337" s="3"/>
-      <c r="F337" s="3"/>
+      <c r="C337" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="G337" s="3"/>
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
@@ -14475,17 +14491,25 @@
       <c r="L337" s="5"/>
       <c r="M337" s="6"/>
     </row>
-    <row r="338" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="13" t="s">
         <v>453</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C338" s="2"/>
-      <c r="D338" s="2"/>
-      <c r="E338" s="3"/>
-      <c r="F338" s="3"/>
+      <c r="C338" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="G338" s="3"/>
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
@@ -14494,17 +14518,25 @@
       <c r="L338" s="5"/>
       <c r="M338" s="6"/>
     </row>
-    <row r="339" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="13" t="s">
         <v>453</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C339" s="2"/>
-      <c r="D339" s="2"/>
-      <c r="E339" s="3"/>
-      <c r="F339" s="3"/>
+      <c r="C339" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="G339" s="3"/>
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
@@ -14513,18 +14545,24 @@
       <c r="L339" s="5"/>
       <c r="M339" s="6"/>
     </row>
-    <row r="340" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="13" t="s">
         <v>453</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C340" s="2"/>
-      <c r="D340" s="2"/>
-      <c r="E340" s="3"/>
-      <c r="F340" s="3"/>
-      <c r="G340" s="3"/>
+      <c r="C340" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F340" s="4"/>
+      <c r="G340" s="4"/>
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
       <c r="J340" s="5"/>
@@ -14532,18 +14570,24 @@
       <c r="L340" s="5"/>
       <c r="M340" s="6"/>
     </row>
-    <row r="341" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="13" t="s">
         <v>453</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
-      <c r="E341" s="3"/>
-      <c r="F341" s="3"/>
-      <c r="G341" s="3"/>
+      <c r="C341" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F341" s="4"/>
+      <c r="G341" s="4"/>
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
       <c r="J341" s="5"/>
@@ -14551,18 +14595,24 @@
       <c r="L341" s="5"/>
       <c r="M341" s="6"/>
     </row>
-    <row r="342" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="13" t="s">
         <v>453</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
-      <c r="E342" s="3"/>
-      <c r="F342" s="3"/>
-      <c r="G342" s="3"/>
+      <c r="C342" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F342" s="4"/>
+      <c r="G342" s="4"/>
       <c r="H342" s="5"/>
       <c r="I342" s="5"/>
       <c r="J342" s="5"/>
@@ -14570,17 +14620,25 @@
       <c r="L342" s="5"/>
       <c r="M342" s="6"/>
     </row>
-    <row r="343" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="13" t="s">
         <v>453</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C343" s="2"/>
-      <c r="D343" s="2"/>
-      <c r="E343" s="3"/>
-      <c r="F343" s="3"/>
+      <c r="C343" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="G343" s="3"/>
       <c r="H343" s="5"/>
       <c r="I343" s="5"/>
@@ -14589,17 +14647,25 @@
       <c r="L343" s="5"/>
       <c r="M343" s="6"/>
     </row>
-    <row r="344" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="13" t="s">
         <v>453</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="3"/>
-      <c r="F344" s="3"/>
+      <c r="C344" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="G344" s="3"/>
       <c r="H344" s="5"/>
       <c r="I344" s="5"/>
@@ -14608,18 +14674,24 @@
       <c r="L344" s="5"/>
       <c r="M344" s="6"/>
     </row>
-    <row r="345" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="13" t="s">
         <v>453</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
-      <c r="E345" s="3"/>
-      <c r="F345" s="3"/>
-      <c r="G345" s="3"/>
+      <c r="C345" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F345" s="4"/>
+      <c r="G345" s="4"/>
       <c r="H345" s="5"/>
       <c r="I345" s="5"/>
       <c r="J345" s="5"/>
@@ -14627,7 +14699,7 @@
       <c r="L345" s="5"/>
       <c r="M345" s="6"/>
     </row>
-    <row r="346" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="13" t="s">
         <v>453</v>
       </c>
@@ -14641,12 +14713,10 @@
         <v>120</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F346" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G346" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="F346" s="4"/>
+      <c r="G346" s="4"/>
       <c r="H346" s="5"/>
       <c r="I346" s="5"/>
       <c r="J346" s="5"/>
@@ -14654,7 +14724,7 @@
       <c r="L346" s="5"/>
       <c r="M346" s="6"/>
     </row>
-    <row r="347" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="13" t="s">
         <v>453</v>
       </c>
@@ -14668,12 +14738,10 @@
         <v>120</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F347" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G347" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="F347" s="4"/>
+      <c r="G347" s="4"/>
       <c r="H347" s="5"/>
       <c r="I347" s="5"/>
       <c r="J347" s="5"/>
@@ -14681,7 +14749,7 @@
       <c r="L347" s="5"/>
       <c r="M347" s="6"/>
     </row>
-    <row r="348" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="13" t="s">
         <v>453</v>
       </c>
@@ -14694,11 +14762,11 @@
       <c r="D348" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E348" s="3" t="s">
-        <v>124</v>
+      <c r="E348" s="3">
+        <v>46057</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G348" s="3"/>
       <c r="H348" s="5"/>
@@ -14708,7 +14776,7 @@
       <c r="L348" s="5"/>
       <c r="M348" s="6"/>
     </row>
-    <row r="349" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="13" t="s">
         <v>453</v>
       </c>
@@ -14721,11 +14789,11 @@
       <c r="D349" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E349" s="3" t="s">
-        <v>125</v>
+      <c r="E349" s="3">
+        <v>46057</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G349" s="3"/>
       <c r="H349" s="5"/>
@@ -14735,7 +14803,7 @@
       <c r="L349" s="5"/>
       <c r="M349" s="6"/>
     </row>
-    <row r="350" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="13" t="s">
         <v>453</v>
       </c>
@@ -14748,11 +14816,13 @@
       <c r="D350" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E350" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F350" s="4"/>
-      <c r="G350" s="4"/>
+      <c r="E350" s="3">
+        <v>46057</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G350" s="3"/>
       <c r="H350" s="5"/>
       <c r="I350" s="5"/>
       <c r="J350" s="5"/>
@@ -14760,7 +14830,7 @@
       <c r="L350" s="5"/>
       <c r="M350" s="6"/>
     </row>
-    <row r="351" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="13" t="s">
         <v>453</v>
       </c>
@@ -14774,10 +14844,12 @@
         <v>120</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F351" s="4"/>
-      <c r="G351" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G351" s="3"/>
       <c r="H351" s="5"/>
       <c r="I351" s="5"/>
       <c r="J351" s="5"/>
@@ -14785,7 +14857,7 @@
       <c r="L351" s="5"/>
       <c r="M351" s="6"/>
     </row>
-    <row r="352" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="13" t="s">
         <v>453</v>
       </c>
@@ -14799,10 +14871,12 @@
         <v>120</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F352" s="4"/>
-      <c r="G352" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G352" s="3"/>
       <c r="H352" s="5"/>
       <c r="I352" s="5"/>
       <c r="J352" s="5"/>
@@ -14810,7 +14884,7 @@
       <c r="L352" s="5"/>
       <c r="M352" s="6"/>
     </row>
-    <row r="353" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="13" t="s">
         <v>453</v>
       </c>
@@ -14824,12 +14898,10 @@
         <v>120</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F353" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G353" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="F353" s="4"/>
+      <c r="G353" s="4"/>
       <c r="H353" s="5"/>
       <c r="I353" s="5"/>
       <c r="J353" s="5"/>
@@ -14837,7 +14909,7 @@
       <c r="L353" s="5"/>
       <c r="M353" s="6"/>
     </row>
-    <row r="354" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="13" t="s">
         <v>453</v>
       </c>
@@ -14848,15 +14920,13 @@
         <v>80</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F354" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G354" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="F354" s="4"/>
+      <c r="G354" s="4"/>
       <c r="H354" s="5"/>
       <c r="I354" s="5"/>
       <c r="J354" s="5"/>
@@ -14864,7 +14934,7 @@
       <c r="L354" s="5"/>
       <c r="M354" s="6"/>
     </row>
-    <row r="355" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="13" t="s">
         <v>453</v>
       </c>
@@ -14875,10 +14945,10 @@
         <v>80</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
@@ -14889,7 +14959,7 @@
       <c r="L355" s="5"/>
       <c r="M355" s="6"/>
     </row>
-    <row r="356" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="13" t="s">
         <v>453</v>
       </c>
@@ -14900,13 +14970,15 @@
         <v>80</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F356" s="4"/>
-      <c r="G356" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G356" s="3"/>
       <c r="H356" s="5"/>
       <c r="I356" s="5"/>
       <c r="J356" s="5"/>
@@ -14914,7 +14986,7 @@
       <c r="L356" s="5"/>
       <c r="M356" s="6"/>
     </row>
-    <row r="357" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="13" t="s">
         <v>453</v>
       </c>
@@ -14925,13 +14997,15 @@
         <v>80</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F357" s="4"/>
-      <c r="G357" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G357" s="3"/>
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
       <c r="J357" s="5"/>
@@ -14939,7 +15013,7 @@
       <c r="L357" s="5"/>
       <c r="M357" s="6"/>
     </row>
-    <row r="358" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="13" t="s">
         <v>453</v>
       </c>
@@ -14950,13 +15024,13 @@
         <v>80</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E358" s="3">
-        <v>46057</v>
+        <v>137</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G358" s="3"/>
       <c r="H358" s="5"/>
@@ -14966,7 +15040,7 @@
       <c r="L358" s="5"/>
       <c r="M358" s="6"/>
     </row>
-    <row r="359" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="13" t="s">
         <v>453</v>
       </c>
@@ -14977,15 +15051,13 @@
         <v>80</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E359" s="3">
-        <v>46057</v>
-      </c>
-      <c r="F359" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G359" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F359" s="4"/>
+      <c r="G359" s="4"/>
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
       <c r="J359" s="5"/>
@@ -14993,7 +15065,7 @@
       <c r="L359" s="5"/>
       <c r="M359" s="6"/>
     </row>
-    <row r="360" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="13" t="s">
         <v>453</v>
       </c>
@@ -15004,15 +15076,13 @@
         <v>80</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E360" s="3">
-        <v>46057</v>
-      </c>
-      <c r="F360" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G360" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F360" s="4"/>
+      <c r="G360" s="4"/>
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
       <c r="J360" s="5"/>
@@ -15020,7 +15090,7 @@
       <c r="L360" s="5"/>
       <c r="M360" s="6"/>
     </row>
-    <row r="361" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="13" t="s">
         <v>453</v>
       </c>
@@ -15031,15 +15101,13 @@
         <v>80</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F361" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G361" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="F361" s="4"/>
+      <c r="G361" s="4"/>
       <c r="H361" s="5"/>
       <c r="I361" s="5"/>
       <c r="J361" s="5"/>
@@ -15047,7 +15115,7 @@
       <c r="L361" s="5"/>
       <c r="M361" s="6"/>
     </row>
-    <row r="362" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="s">
         <v>453</v>
       </c>
@@ -15058,15 +15126,13 @@
         <v>80</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F362" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G362" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="F362" s="4"/>
+      <c r="G362" s="4"/>
       <c r="H362" s="5"/>
       <c r="I362" s="5"/>
       <c r="J362" s="5"/>
@@ -15074,7 +15140,7 @@
       <c r="L362" s="5"/>
       <c r="M362" s="6"/>
     </row>
-    <row r="363" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="13" t="s">
         <v>453</v>
       </c>
@@ -15085,13 +15151,15 @@
         <v>80</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F363" s="4"/>
-      <c r="G363" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G363" s="3"/>
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
       <c r="J363" s="5"/>
@@ -15099,7 +15167,7 @@
       <c r="L363" s="5"/>
       <c r="M363" s="6"/>
     </row>
-    <row r="364" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="13" t="s">
         <v>453</v>
       </c>
@@ -15110,13 +15178,15 @@
         <v>80</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F364" s="4"/>
-      <c r="G364" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G364" s="3"/>
       <c r="H364" s="5"/>
       <c r="I364" s="5"/>
       <c r="J364" s="5"/>
@@ -15124,7 +15194,7 @@
       <c r="L364" s="5"/>
       <c r="M364" s="6"/>
     </row>
-    <row r="365" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="13" t="s">
         <v>453</v>
       </c>
@@ -15135,13 +15205,15 @@
         <v>80</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F365" s="4"/>
-      <c r="G365" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G365" s="3"/>
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
       <c r="J365" s="5"/>
@@ -15149,7 +15221,7 @@
       <c r="L365" s="5"/>
       <c r="M365" s="6"/>
     </row>
-    <row r="366" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="13" t="s">
         <v>453</v>
       </c>
@@ -15160,13 +15232,13 @@
         <v>80</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="G366" s="3"/>
       <c r="H366" s="5"/>
@@ -15176,7 +15248,7 @@
       <c r="L366" s="5"/>
       <c r="M366" s="6"/>
     </row>
-    <row r="367" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A367" s="13" t="s">
         <v>453</v>
       </c>
@@ -15187,13 +15259,13 @@
         <v>80</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G367" s="3"/>
       <c r="H367" s="5"/>
@@ -15203,7 +15275,7 @@
       <c r="L367" s="5"/>
       <c r="M367" s="6"/>
     </row>
-    <row r="368" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="13" t="s">
         <v>453</v>
       </c>
@@ -15214,13 +15286,13 @@
         <v>80</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="G368" s="3"/>
       <c r="H368" s="5"/>
@@ -15230,7 +15302,7 @@
       <c r="L368" s="5"/>
       <c r="M368" s="6"/>
     </row>
-    <row r="369" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A369" s="13" t="s">
         <v>453</v>
       </c>
@@ -15241,10 +15313,10 @@
         <v>80</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
@@ -15255,7 +15327,7 @@
       <c r="L369" s="5"/>
       <c r="M369" s="6"/>
     </row>
-    <row r="370" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A370" s="13" t="s">
         <v>453</v>
       </c>
@@ -15266,13 +15338,15 @@
         <v>80</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F370" s="4"/>
-      <c r="G370" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G370" s="3"/>
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
       <c r="J370" s="5"/>
@@ -15280,7 +15354,7 @@
       <c r="L370" s="5"/>
       <c r="M370" s="6"/>
     </row>
-    <row r="371" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A371" s="13" t="s">
         <v>453</v>
       </c>
@@ -15291,10 +15365,10 @@
         <v>80</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E371" s="3" t="s">
-        <v>144</v>
+        <v>155</v>
+      </c>
+      <c r="E371" s="3">
+        <v>46174</v>
       </c>
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
@@ -15305,7 +15379,7 @@
       <c r="L371" s="5"/>
       <c r="M371" s="6"/>
     </row>
-    <row r="372" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A372" s="13" t="s">
         <v>453</v>
       </c>
@@ -15316,10 +15390,10 @@
         <v>80</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
@@ -15330,7 +15404,7 @@
       <c r="L372" s="5"/>
       <c r="M372" s="6"/>
     </row>
-    <row r="373" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="13" t="s">
         <v>453</v>
       </c>
@@ -15341,15 +15415,13 @@
         <v>80</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F373" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G373" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="F373" s="4"/>
+      <c r="G373" s="4"/>
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
       <c r="J373" s="5"/>
@@ -15357,7 +15429,7 @@
       <c r="L373" s="5"/>
       <c r="M373" s="6"/>
     </row>
-    <row r="374" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" s="13" t="s">
         <v>453</v>
       </c>
@@ -15368,15 +15440,13 @@
         <v>80</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E374" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F374" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G374" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="E374" s="3">
+        <v>46235</v>
+      </c>
+      <c r="F374" s="4"/>
+      <c r="G374" s="4"/>
       <c r="H374" s="5"/>
       <c r="I374" s="5"/>
       <c r="J374" s="5"/>
@@ -15384,7 +15454,7 @@
       <c r="L374" s="5"/>
       <c r="M374" s="6"/>
     </row>
-    <row r="375" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A375" s="13" t="s">
         <v>453</v>
       </c>
@@ -15395,15 +15465,13 @@
         <v>80</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F375" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G375" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="F375" s="4"/>
+      <c r="G375" s="4"/>
       <c r="H375" s="5"/>
       <c r="I375" s="5"/>
       <c r="J375" s="5"/>
@@ -15411,7 +15479,7 @@
       <c r="L375" s="5"/>
       <c r="M375" s="6"/>
     </row>
-    <row r="376" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A376" s="13" t="s">
         <v>453</v>
       </c>
@@ -15422,15 +15490,13 @@
         <v>80</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F376" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G376" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="F376" s="4"/>
+      <c r="G376" s="4"/>
       <c r="H376" s="5"/>
       <c r="I376" s="5"/>
       <c r="J376" s="5"/>
@@ -15438,7 +15504,7 @@
       <c r="L376" s="5"/>
       <c r="M376" s="6"/>
     </row>
-    <row r="377" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A377" s="13" t="s">
         <v>453</v>
       </c>
@@ -15449,15 +15515,13 @@
         <v>80</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F377" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G377" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="F377" s="4"/>
+      <c r="G377" s="4"/>
       <c r="H377" s="5"/>
       <c r="I377" s="5"/>
       <c r="J377" s="5"/>
@@ -15465,7 +15529,7 @@
       <c r="L377" s="5"/>
       <c r="M377" s="6"/>
     </row>
-    <row r="378" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A378" s="13" t="s">
         <v>453</v>
       </c>
@@ -15476,15 +15540,13 @@
         <v>80</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E378" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F378" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G378" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="E378" s="3">
+        <v>46236</v>
+      </c>
+      <c r="F378" s="4"/>
+      <c r="G378" s="4"/>
       <c r="H378" s="5"/>
       <c r="I378" s="5"/>
       <c r="J378" s="5"/>
@@ -15492,7 +15554,7 @@
       <c r="L378" s="5"/>
       <c r="M378" s="6"/>
     </row>
-    <row r="379" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A379" s="13" t="s">
         <v>453</v>
       </c>
@@ -15503,10 +15565,10 @@
         <v>80</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E379" s="3" t="s">
-        <v>110</v>
+        <v>159</v>
+      </c>
+      <c r="E379" s="3">
+        <v>46266</v>
       </c>
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
@@ -15517,7 +15579,7 @@
       <c r="L379" s="5"/>
       <c r="M379" s="6"/>
     </row>
-    <row r="380" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A380" s="13" t="s">
         <v>453</v>
       </c>
@@ -15528,15 +15590,13 @@
         <v>80</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F380" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G380" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="F380" s="4"/>
+      <c r="G380" s="4"/>
       <c r="H380" s="5"/>
       <c r="I380" s="5"/>
       <c r="J380" s="5"/>
@@ -15544,7 +15604,7 @@
       <c r="L380" s="5"/>
       <c r="M380" s="6"/>
     </row>
-    <row r="381" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" s="13" t="s">
         <v>453</v>
       </c>
@@ -15555,10 +15615,10 @@
         <v>80</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E381" s="3">
-        <v>46174</v>
+        <v>159</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
@@ -15569,7 +15629,7 @@
       <c r="L381" s="5"/>
       <c r="M381" s="6"/>
     </row>
-    <row r="382" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A382" s="13" t="s">
         <v>453</v>
       </c>
@@ -15580,10 +15640,10 @@
         <v>80</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E382" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="E382" s="3">
+        <v>46055</v>
       </c>
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
@@ -15594,7 +15654,7 @@
       <c r="L382" s="5"/>
       <c r="M382" s="6"/>
     </row>
-    <row r="383" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A383" s="13" t="s">
         <v>453</v>
       </c>
@@ -15602,24 +15662,34 @@
         <v>6</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E383" s="3" t="s">
-        <v>157</v>
+        <v>234</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="F383" s="4"/>
       <c r="G383" s="4"/>
-      <c r="H383" s="5"/>
-      <c r="I383" s="5"/>
-      <c r="J383" s="5"/>
-      <c r="K383" s="5"/>
-      <c r="L383" s="5"/>
+      <c r="H383" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I383" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J383" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K383" s="5">
+        <v>560</v>
+      </c>
+      <c r="L383" s="5">
+        <v>5998</v>
+      </c>
       <c r="M383" s="6"/>
     </row>
-    <row r="384" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="13" t="s">
         <v>453</v>
       </c>
@@ -15627,24 +15697,34 @@
         <v>6</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E384" s="3">
-        <v>46235</v>
+        <v>234</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
-      <c r="H384" s="5"/>
-      <c r="I384" s="5"/>
-      <c r="J384" s="5"/>
-      <c r="K384" s="5"/>
-      <c r="L384" s="5"/>
+      <c r="H384" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I384" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J384" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K384" s="5">
+        <v>610</v>
+      </c>
+      <c r="L384" s="5">
+        <v>5998</v>
+      </c>
       <c r="M384" s="6"/>
     </row>
-    <row r="385" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="13" t="s">
         <v>453</v>
       </c>
@@ -15652,24 +15732,34 @@
         <v>6</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
-      <c r="H385" s="5"/>
-      <c r="I385" s="5"/>
-      <c r="J385" s="5"/>
-      <c r="K385" s="5"/>
-      <c r="L385" s="5"/>
+      <c r="H385" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="I385" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J385" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K385" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="L385" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="M385" s="6"/>
     </row>
-    <row r="386" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A386" s="13" t="s">
         <v>453</v>
       </c>
@@ -15677,24 +15767,34 @@
         <v>6</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
-      <c r="H386" s="5"/>
-      <c r="I386" s="5"/>
-      <c r="J386" s="5"/>
-      <c r="K386" s="5"/>
-      <c r="L386" s="5"/>
+      <c r="H386" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I386" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J386" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K386" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="L386" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="M386" s="6"/>
     </row>
-    <row r="387" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A387" s="13" t="s">
         <v>453</v>
       </c>
@@ -15702,24 +15802,34 @@
         <v>6</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
-      <c r="H387" s="5"/>
-      <c r="I387" s="5"/>
-      <c r="J387" s="5"/>
-      <c r="K387" s="5"/>
-      <c r="L387" s="5"/>
+      <c r="H387" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="I387" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J387" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K387" s="5">
+        <v>601</v>
+      </c>
+      <c r="L387" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="M387" s="6"/>
     </row>
-    <row r="388" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A388" s="13" t="s">
         <v>453</v>
       </c>
@@ -15727,24 +15837,34 @@
         <v>6</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E388" s="3">
-        <v>46236</v>
+        <v>234</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
-      <c r="H388" s="5"/>
-      <c r="I388" s="5"/>
-      <c r="J388" s="5"/>
-      <c r="K388" s="5"/>
-      <c r="L388" s="5"/>
+      <c r="H388" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="I388" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J388" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K388" s="5">
+        <v>630</v>
+      </c>
+      <c r="L388" s="5">
+        <v>5998</v>
+      </c>
       <c r="M388" s="6"/>
     </row>
-    <row r="389" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A389" s="13" t="s">
         <v>453</v>
       </c>
@@ -15752,24 +15872,34 @@
         <v>6</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E389" s="3">
-        <v>46266</v>
+        <v>399</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
-      <c r="H389" s="5"/>
-      <c r="I389" s="5"/>
-      <c r="J389" s="5"/>
-      <c r="K389" s="5"/>
-      <c r="L389" s="5"/>
+      <c r="H389" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I389" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J389" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K389" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="L389" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="M389" s="6"/>
     </row>
-    <row r="390" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A390" s="13" t="s">
         <v>453</v>
       </c>
@@ -15777,24 +15907,34 @@
         <v>6</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
-      <c r="H390" s="5"/>
-      <c r="I390" s="5"/>
-      <c r="J390" s="5"/>
-      <c r="K390" s="5"/>
-      <c r="L390" s="5"/>
+      <c r="H390" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I390" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J390" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K390" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="L390" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="M390" s="6"/>
     </row>
-    <row r="391" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A391" s="13" t="s">
         <v>453</v>
       </c>
@@ -15802,24 +15942,34 @@
         <v>6</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>159</v>
+        <v>400</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>160</v>
+        <v>407</v>
       </c>
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
-      <c r="H391" s="5"/>
-      <c r="I391" s="5"/>
-      <c r="J391" s="5"/>
-      <c r="K391" s="5"/>
-      <c r="L391" s="5"/>
+      <c r="H391" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="I391" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J391" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K391" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="L391" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="M391" s="6"/>
     </row>
-    <row r="392" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A392" s="13" t="s">
         <v>453</v>
       </c>
@@ -15827,21 +15977,31 @@
         <v>6</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E392" s="3">
-        <v>46055</v>
+        <v>401</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
-      <c r="H392" s="5"/>
-      <c r="I392" s="5"/>
-      <c r="J392" s="5"/>
-      <c r="K392" s="5"/>
-      <c r="L392" s="5"/>
+      <c r="H392" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I392" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J392" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K392" s="5">
+        <v>512</v>
+      </c>
+      <c r="L392" s="5">
+        <v>6752</v>
+      </c>
       <c r="M392" s="6"/>
     </row>
     <row r="393" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15852,13 +16012,13 @@
         <v>6</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>398</v>
+        <v>162</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E393" s="2" t="s">
-        <v>402</v>
+        <v>163</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
@@ -15872,10 +16032,10 @@
         <v>250</v>
       </c>
       <c r="K393" s="5">
-        <v>560</v>
+        <v>205</v>
       </c>
       <c r="L393" s="5">
-        <v>5998</v>
+        <v>3797</v>
       </c>
       <c r="M393" s="6"/>
     </row>
@@ -15887,13 +16047,13 @@
         <v>6</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>398</v>
+        <v>162</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>403</v>
+        <v>164</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
@@ -15907,10 +16067,10 @@
         <v>250</v>
       </c>
       <c r="K394" s="5">
-        <v>610</v>
+        <v>225</v>
       </c>
       <c r="L394" s="5">
-        <v>5998</v>
+        <v>3797</v>
       </c>
       <c r="M394" s="6"/>
     </row>
@@ -15922,18 +16082,18 @@
         <v>6</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>398</v>
+        <v>162</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>49</v>
+        <v>411</v>
       </c>
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
       <c r="H395" s="5" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="I395" s="5" t="s">
         <v>256</v>
@@ -15941,11 +16101,11 @@
       <c r="J395" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K395" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="L395" s="5" t="s">
-        <v>313</v>
+      <c r="K395" s="5">
+        <v>170</v>
+      </c>
+      <c r="L395" s="5">
+        <v>3595</v>
       </c>
       <c r="M395" s="6"/>
     </row>
@@ -15957,18 +16117,18 @@
         <v>6</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>398</v>
+        <v>162</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
       <c r="H396" s="5" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="I396" s="5" t="s">
         <v>256</v>
@@ -15977,7 +16137,7 @@
         <v>250</v>
       </c>
       <c r="K396" s="5" t="s">
-        <v>311</v>
+        <v>412</v>
       </c>
       <c r="L396" s="5" t="s">
         <v>305</v>
@@ -15992,18 +16152,18 @@
         <v>6</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>398</v>
+        <v>162</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
       <c r="H397" s="5" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="I397" s="5" t="s">
         <v>256</v>
@@ -16012,14 +16172,14 @@
         <v>250</v>
       </c>
       <c r="K397" s="5">
-        <v>601</v>
-      </c>
-      <c r="L397" s="5" t="s">
-        <v>305</v>
+        <v>262</v>
+      </c>
+      <c r="L397" s="5">
+        <v>5733</v>
       </c>
       <c r="M397" s="6"/>
     </row>
-    <row r="398" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="13" t="s">
         <v>453</v>
       </c>
@@ -16027,30 +16187,30 @@
         <v>6</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>398</v>
+        <v>162</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>406</v>
+        <v>243</v>
       </c>
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
       <c r="H398" s="5" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J398" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K398" s="5">
-        <v>630</v>
-      </c>
-      <c r="L398" s="5">
-        <v>5998</v>
+      <c r="K398" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L398" s="5" t="s">
+        <v>366</v>
       </c>
       <c r="M398" s="6"/>
     </row>
@@ -16062,31 +16222,29 @@
         <v>6</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
       <c r="H399" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J399" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K399" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="L399" s="5" t="s">
-        <v>313</v>
-      </c>
+      <c r="K399" s="5">
+        <v>204</v>
+      </c>
+      <c r="L399" s="5"/>
       <c r="M399" s="6"/>
     </row>
     <row r="400" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16097,31 +16255,29 @@
         <v>6</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
       <c r="H400" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J400" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K400" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L400" s="5" t="s">
-        <v>307</v>
-      </c>
+      <c r="K400" s="5">
+        <v>204</v>
+      </c>
+      <c r="L400" s="5"/>
       <c r="M400" s="6"/>
     </row>
     <row r="401" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16132,34 +16288,32 @@
         <v>6</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>407</v>
+        <v>316</v>
       </c>
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
       <c r="H401" s="5" t="s">
-        <v>391</v>
+        <v>257</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J401" s="5" t="s">
         <v>250</v>
       </c>
       <c r="K401" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L401" s="5" t="s">
-        <v>313</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="L401" s="5"/>
       <c r="M401" s="6"/>
     </row>
-    <row r="402" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A402" s="13" t="s">
         <v>453</v>
       </c>
@@ -16167,13 +16321,13 @@
         <v>6</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>408</v>
+        <v>239</v>
       </c>
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
@@ -16181,16 +16335,16 @@
         <v>409</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J402" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K402" s="5">
-        <v>512</v>
-      </c>
-      <c r="L402" s="5">
-        <v>6752</v>
+        <v>258</v>
+      </c>
+      <c r="K402" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="L402" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="M402" s="6"/>
     </row>
@@ -16202,13 +16356,13 @@
         <v>6</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>162</v>
+        <v>414</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>163</v>
+        <v>417</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>411</v>
+        <v>230</v>
       </c>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
@@ -16216,16 +16370,16 @@
         <v>409</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J403" s="5" t="s">
         <v>250</v>
       </c>
       <c r="K403" s="5">
-        <v>205</v>
+        <v>601</v>
       </c>
       <c r="L403" s="5">
-        <v>3797</v>
+        <v>6001</v>
       </c>
       <c r="M403" s="6"/>
     </row>
@@ -16237,13 +16391,13 @@
         <v>6</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>162</v>
+        <v>414</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>164</v>
+        <v>418</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
@@ -16251,16 +16405,16 @@
         <v>409</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J404" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K404" s="5">
-        <v>225</v>
+      <c r="K404" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="L404" s="5">
-        <v>3797</v>
+        <v>1300</v>
       </c>
       <c r="M404" s="6"/>
     </row>
@@ -16272,13 +16426,13 @@
         <v>6</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>162</v>
+        <v>414</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>165</v>
+        <v>419</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>411</v>
+        <v>316</v>
       </c>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
@@ -16286,17 +16440,15 @@
         <v>409</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J405" s="5" t="s">
         <v>250</v>
       </c>
       <c r="K405" s="5">
-        <v>170</v>
-      </c>
-      <c r="L405" s="5">
-        <v>3595</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="L405" s="5"/>
       <c r="M405" s="6"/>
     </row>
     <row r="406" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16307,31 +16459,29 @@
         <v>6</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>162</v>
+        <v>414</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>166</v>
+        <v>419</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
       <c r="H406" s="5" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J406" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K406" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="L406" s="5" t="s">
-        <v>305</v>
-      </c>
+      <c r="K406" s="5">
+        <v>530</v>
+      </c>
+      <c r="L406" s="5"/>
       <c r="M406" s="6"/>
     </row>
     <row r="407" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16342,13 +16492,13 @@
         <v>6</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>413</v>
+        <v>171</v>
       </c>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
@@ -16356,20 +16506,20 @@
         <v>409</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="J407" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K407" s="5">
-        <v>262</v>
-      </c>
-      <c r="L407" s="5">
-        <v>5733</v>
+      <c r="K407" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="L407" s="5" t="s">
+        <v>366</v>
       </c>
       <c r="M407" s="6"/>
     </row>
-    <row r="408" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A408" s="13" t="s">
         <v>453</v>
       </c>
@@ -16377,13 +16527,13 @@
         <v>6</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>243</v>
+        <v>421</v>
       </c>
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
@@ -16391,16 +16541,16 @@
         <v>409</v>
       </c>
       <c r="I408" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J408" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K408" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="L408" s="5" t="s">
-        <v>366</v>
+      <c r="K408" s="5">
+        <v>211</v>
+      </c>
+      <c r="L408" s="5">
+        <v>2792</v>
       </c>
       <c r="M408" s="6"/>
     </row>
@@ -16412,29 +16562,31 @@
         <v>6</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>414</v>
+        <v>169</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>415</v>
+        <v>170</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>227</v>
+        <v>347</v>
       </c>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
       <c r="H409" s="5" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="I409" s="5" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="J409" s="5" t="s">
         <v>250</v>
       </c>
       <c r="K409" s="5">
-        <v>204</v>
-      </c>
-      <c r="L409" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="L409" s="5">
+        <v>3175</v>
+      </c>
       <c r="M409" s="6"/>
     </row>
     <row r="410" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16445,29 +16597,31 @@
         <v>6</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>414</v>
+        <v>169</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>415</v>
+        <v>170</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
       <c r="H410" s="5" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="I410" s="5" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="J410" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K410" s="5">
-        <v>204</v>
-      </c>
-      <c r="L410" s="5"/>
+        <v>258</v>
+      </c>
+      <c r="K410" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="L410" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="M410" s="6"/>
     </row>
     <row r="411" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16478,32 +16632,34 @@
         <v>6</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>414</v>
+        <v>169</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>415</v>
+        <v>173</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>316</v>
+        <v>174</v>
       </c>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
       <c r="H411" s="5" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="I411" s="5" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="J411" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K411" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="L411" s="5"/>
+      <c r="K411" s="5">
+        <v>223</v>
+      </c>
+      <c r="L411" s="5">
+        <v>5735</v>
+      </c>
       <c r="M411" s="6"/>
     </row>
-    <row r="412" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A412" s="13" t="s">
         <v>453</v>
       </c>
@@ -16511,13 +16667,13 @@
         <v>6</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>414</v>
+        <v>169</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>416</v>
+        <v>175</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
@@ -16525,16 +16681,16 @@
         <v>409</v>
       </c>
       <c r="I412" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J412" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K412" s="5" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="L412" s="5" t="s">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="M412" s="6"/>
     </row>
@@ -16546,13 +16702,13 @@
         <v>6</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>414</v>
+        <v>169</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>417</v>
+        <v>175</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
@@ -16560,16 +16716,16 @@
         <v>409</v>
       </c>
       <c r="I413" s="5" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="J413" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K413" s="5">
-        <v>601</v>
-      </c>
-      <c r="L413" s="5">
-        <v>6001</v>
+      <c r="K413" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="L413" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="M413" s="6"/>
     </row>
@@ -16581,30 +16737,30 @@
         <v>6</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>414</v>
+        <v>169</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>418</v>
+        <v>179</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>420</v>
+        <v>178</v>
       </c>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
       <c r="H414" s="5" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="I414" s="5" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="J414" s="5" t="s">
         <v>250</v>
       </c>
       <c r="K414" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="L414" s="5">
-        <v>1300</v>
+        <v>412</v>
+      </c>
+      <c r="L414" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="M414" s="6"/>
     </row>
@@ -16616,13 +16772,13 @@
         <v>6</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>414</v>
+        <v>169</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>419</v>
+        <v>180</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>316</v>
+        <v>425</v>
       </c>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
@@ -16630,15 +16786,17 @@
         <v>409</v>
       </c>
       <c r="I415" s="5" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="J415" s="5" t="s">
         <v>250</v>
       </c>
       <c r="K415" s="5">
-        <v>218</v>
-      </c>
-      <c r="L415" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="L415" s="5">
+        <v>4894</v>
+      </c>
       <c r="M415" s="6"/>
     </row>
     <row r="416" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16649,13 +16807,13 @@
         <v>6</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>414</v>
+        <v>169</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>419</v>
+        <v>180</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
@@ -16663,15 +16821,17 @@
         <v>409</v>
       </c>
       <c r="I416" s="5" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="J416" s="5" t="s">
         <v>250</v>
       </c>
       <c r="K416" s="5">
-        <v>530</v>
-      </c>
-      <c r="L416" s="5"/>
+        <v>260</v>
+      </c>
+      <c r="L416" s="5">
+        <v>5733</v>
+      </c>
       <c r="M416" s="6"/>
     </row>
     <row r="417" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16685,10 +16845,10 @@
         <v>169</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
@@ -16701,11 +16861,11 @@
       <c r="J417" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K417" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="L417" s="5" t="s">
-        <v>366</v>
+      <c r="K417" s="5">
+        <v>300</v>
+      </c>
+      <c r="L417" s="5">
+        <v>4572</v>
       </c>
       <c r="M417" s="6"/>
     </row>
@@ -16720,10 +16880,10 @@
         <v>169</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>421</v>
+        <v>183</v>
       </c>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
@@ -16737,10 +16897,10 @@
         <v>250</v>
       </c>
       <c r="K418" s="5">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="L418" s="5">
-        <v>2792</v>
+        <v>4917</v>
       </c>
       <c r="M418" s="6"/>
     </row>
@@ -16755,10 +16915,10 @@
         <v>169</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
@@ -16772,14 +16932,14 @@
         <v>250</v>
       </c>
       <c r="K419" s="5">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="L419" s="5">
-        <v>3175</v>
+        <v>3564</v>
       </c>
       <c r="M419" s="6"/>
     </row>
-    <row r="420" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A420" s="13" t="s">
         <v>453</v>
       </c>
@@ -16787,30 +16947,32 @@
         <v>6</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F420" s="4"/>
-      <c r="G420" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G420" s="3"/>
       <c r="H420" s="5" t="s">
         <v>409</v>
       </c>
       <c r="I420" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J420" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="K420" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="L420" s="5" t="s">
-        <v>307</v>
+      <c r="K420" s="5">
+        <v>110</v>
+      </c>
+      <c r="L420" s="5">
+        <v>1595</v>
       </c>
       <c r="M420" s="6"/>
     </row>
@@ -16822,16 +16984,18 @@
         <v>6</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F421" s="4"/>
-      <c r="G421" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G421" s="3"/>
       <c r="H421" s="5" t="s">
         <v>409</v>
       </c>
@@ -16839,13 +17003,13 @@
         <v>265</v>
       </c>
       <c r="J421" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K421" s="5">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="L421" s="5">
-        <v>5735</v>
+        <v>1597</v>
       </c>
       <c r="M421" s="6"/>
     </row>
@@ -16857,16 +17021,18 @@
         <v>6</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F422" s="4"/>
-      <c r="G422" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G422" s="3"/>
       <c r="H422" s="5" t="s">
         <v>409</v>
       </c>
@@ -16874,17 +17040,17 @@
         <v>265</v>
       </c>
       <c r="J422" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K422" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="L422" s="5" t="s">
-        <v>424</v>
+        <v>258</v>
+      </c>
+      <c r="K422" s="5">
+        <v>110</v>
+      </c>
+      <c r="L422" s="5">
+        <v>1597</v>
       </c>
       <c r="M422" s="6"/>
     </row>
-    <row r="423" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A423" s="13" t="s">
         <v>453</v>
       </c>
@@ -16892,30 +17058,30 @@
         <v>6</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
       <c r="H423" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I423" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J423" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K423" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="L423" s="5" t="s">
-        <v>315</v>
+        <v>258</v>
+      </c>
+      <c r="K423" s="5">
+        <v>119</v>
+      </c>
+      <c r="L423" s="5">
+        <v>1597</v>
       </c>
       <c r="M423" s="6"/>
     </row>
@@ -16927,18 +17093,18 @@
         <v>6</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
       <c r="H424" s="5" t="s">
-        <v>391</v>
+        <v>257</v>
       </c>
       <c r="I424" s="5" t="s">
         <v>265</v>
@@ -16946,11 +17112,11 @@
       <c r="J424" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K424" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="L424" s="5" t="s">
-        <v>315</v>
+      <c r="K424" s="5">
+        <v>136</v>
+      </c>
+      <c r="L424" s="5">
+        <v>1971</v>
       </c>
       <c r="M424" s="6"/>
     </row>
@@ -16962,18 +17128,20 @@
         <v>6</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="F425" s="4"/>
-      <c r="G425" s="4"/>
+        <v>427</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G425" s="3"/>
       <c r="H425" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I425" s="5" t="s">
         <v>265</v>
@@ -16982,10 +17150,10 @@
         <v>250</v>
       </c>
       <c r="K425" s="5">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="L425" s="5">
-        <v>4894</v>
+        <v>1297</v>
       </c>
       <c r="M425" s="6"/>
     </row>
@@ -16997,18 +17165,20 @@
         <v>6</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="F426" s="4"/>
-      <c r="G426" s="4"/>
+        <v>427</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G426" s="3"/>
       <c r="H426" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I426" s="5" t="s">
         <v>265</v>
@@ -17017,14 +17187,14 @@
         <v>250</v>
       </c>
       <c r="K426" s="5">
-        <v>260</v>
+        <v>84</v>
       </c>
       <c r="L426" s="5">
-        <v>5733</v>
+        <v>1297</v>
       </c>
       <c r="M426" s="6"/>
     </row>
-    <row r="427" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A427" s="13" t="s">
         <v>453</v>
       </c>
@@ -17032,13 +17202,13 @@
         <v>6</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="E427" s="3" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
@@ -17046,20 +17216,20 @@
         <v>409</v>
       </c>
       <c r="I427" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J427" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K427" s="5">
-        <v>300</v>
-      </c>
-      <c r="L427" s="5">
-        <v>4572</v>
+        <v>258</v>
+      </c>
+      <c r="K427" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="L427" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="M427" s="6"/>
     </row>
-    <row r="428" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A428" s="13" t="s">
         <v>453</v>
       </c>
@@ -17067,13 +17237,13 @@
         <v>6</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
@@ -17081,20 +17251,20 @@
         <v>409</v>
       </c>
       <c r="I428" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J428" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K428" s="5">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="L428" s="5">
-        <v>4917</v>
+        <v>1597</v>
       </c>
       <c r="M428" s="6"/>
     </row>
-    <row r="429" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A429" s="13" t="s">
         <v>453</v>
       </c>
@@ -17102,13 +17272,13 @@
         <v>6</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>426</v>
+        <v>197</v>
       </c>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
@@ -17116,20 +17286,20 @@
         <v>409</v>
       </c>
       <c r="I429" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J429" s="5" t="s">
         <v>250</v>
       </c>
       <c r="K429" s="5">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="L429" s="5">
-        <v>3564</v>
+        <v>1971</v>
       </c>
       <c r="M429" s="6"/>
     </row>
-    <row r="430" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A430" s="13" t="s">
         <v>453</v>
       </c>
@@ -17137,36 +17307,36 @@
         <v>6</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>239</v>
+        <v>428</v>
       </c>
       <c r="F430" s="3" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="G430" s="3"/>
       <c r="H430" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I430" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J430" s="5" t="s">
         <v>258</v>
       </c>
       <c r="K430" s="5">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="L430" s="5">
-        <v>1595</v>
+        <v>1229</v>
       </c>
       <c r="M430" s="6"/>
     </row>
-    <row r="431" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A431" s="13" t="s">
         <v>453</v>
       </c>
@@ -17174,32 +17344,32 @@
         <v>6</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>239</v>
+        <v>428</v>
       </c>
       <c r="F431" s="3" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="G431" s="3"/>
       <c r="H431" s="5" t="s">
         <v>409</v>
       </c>
       <c r="I431" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J431" s="5" t="s">
         <v>258</v>
       </c>
       <c r="K431" s="5">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="L431" s="5">
-        <v>1597</v>
+        <v>1150</v>
       </c>
       <c r="M431" s="6"/>
     </row>
@@ -17211,20 +17381,20 @@
         <v>6</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>239</v>
+        <v>428</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="G432" s="3"/>
       <c r="H432" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I432" s="5" t="s">
         <v>265</v>
@@ -17233,14 +17403,14 @@
         <v>258</v>
       </c>
       <c r="K432" s="5">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="L432" s="5">
-        <v>1597</v>
+        <v>1150</v>
       </c>
       <c r="M432" s="6"/>
     </row>
-    <row r="433" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A433" s="13" t="s">
         <v>453</v>
       </c>
@@ -17248,30 +17418,32 @@
         <v>6</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E433" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F433" s="4"/>
-      <c r="G433" s="4"/>
+        <v>428</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G433" s="3"/>
       <c r="H433" s="5" t="s">
         <v>257</v>
       </c>
       <c r="I433" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J433" s="5" t="s">
         <v>258</v>
       </c>
       <c r="K433" s="5">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="L433" s="5">
-        <v>1597</v>
+        <v>1206</v>
       </c>
       <c r="M433" s="6"/>
     </row>
@@ -17283,30 +17455,32 @@
         <v>6</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F434" s="4"/>
-      <c r="G434" s="4"/>
+        <v>203</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G434" s="3"/>
       <c r="H434" s="5" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="I434" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J434" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K434" s="5">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="L434" s="5">
-        <v>1971</v>
+        <v>1248</v>
       </c>
       <c r="M434" s="6"/>
     </row>
@@ -17318,32 +17492,32 @@
         <v>6</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E435" s="3" t="s">
-        <v>427</v>
+        <v>203</v>
       </c>
       <c r="F435" s="3" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G435" s="3"/>
       <c r="H435" s="5" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="I435" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J435" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K435" s="5">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L435" s="5">
-        <v>1297</v>
+        <v>1248</v>
       </c>
       <c r="M435" s="6"/>
     </row>
@@ -17355,32 +17529,32 @@
         <v>6</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>427</v>
+        <v>203</v>
       </c>
       <c r="F436" s="3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="G436" s="3"/>
       <c r="H436" s="5" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="I436" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J436" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K436" s="5">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="L436" s="5">
-        <v>1297</v>
+        <v>1248</v>
       </c>
       <c r="M436" s="6"/>
     </row>
@@ -17392,16 +17566,18 @@
         <v>6</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F437" s="4"/>
-      <c r="G437" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G437" s="3"/>
       <c r="H437" s="5" t="s">
         <v>409</v>
       </c>
@@ -17411,15 +17587,15 @@
       <c r="J437" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="K437" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="L437" s="5" t="s">
-        <v>303</v>
+      <c r="K437" s="5">
+        <v>100</v>
+      </c>
+      <c r="L437" s="5">
+        <v>1398</v>
       </c>
       <c r="M437" s="6"/>
     </row>
-    <row r="438" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A438" s="13" t="s">
         <v>453</v>
       </c>
@@ -17427,30 +17603,32 @@
         <v>6</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F438" s="4"/>
-      <c r="G438" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G438" s="3"/>
       <c r="H438" s="5" t="s">
         <v>409</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J438" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K438" s="5">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="L438" s="5">
-        <v>1597</v>
+        <v>1398</v>
       </c>
       <c r="M438" s="6"/>
     </row>
@@ -17462,16 +17640,18 @@
         <v>6</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F439" s="4"/>
-      <c r="G439" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G439" s="3"/>
       <c r="H439" s="5" t="s">
         <v>409</v>
       </c>
@@ -17482,14 +17662,14 @@
         <v>250</v>
       </c>
       <c r="K439" s="5">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="L439" s="5">
-        <v>1971</v>
+        <v>1398</v>
       </c>
       <c r="M439" s="6"/>
     </row>
-    <row r="440" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A440" s="13" t="s">
         <v>453</v>
       </c>
@@ -17503,26 +17683,26 @@
         <v>199</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>428</v>
+        <v>238</v>
       </c>
       <c r="F440" s="3" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="G440" s="3"/>
       <c r="H440" s="5" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J440" s="5" t="s">
         <v>258</v>
       </c>
       <c r="K440" s="5">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="L440" s="5">
-        <v>1229</v>
+        <v>1399</v>
       </c>
       <c r="M440" s="6"/>
     </row>
@@ -17540,10 +17720,10 @@
         <v>199</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>428</v>
+        <v>238</v>
       </c>
       <c r="F441" s="3" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G441" s="3"/>
       <c r="H441" s="5" t="s">
@@ -17556,14 +17736,14 @@
         <v>258</v>
       </c>
       <c r="K441" s="5">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L441" s="5">
-        <v>1150</v>
+        <v>1399</v>
       </c>
       <c r="M441" s="6"/>
     </row>
-    <row r="442" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A442" s="13" t="s">
         <v>453</v>
       </c>
@@ -17577,26 +17757,26 @@
         <v>199</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>428</v>
+        <v>238</v>
       </c>
       <c r="F442" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G442" s="3"/>
       <c r="H442" s="5" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="I442" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J442" s="5" t="s">
         <v>258</v>
       </c>
       <c r="K442" s="5">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L442" s="5">
-        <v>1150</v>
+        <v>1399</v>
       </c>
       <c r="M442" s="6"/>
     </row>
@@ -17611,29 +17791,27 @@
         <v>198</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>199</v>
+        <v>429</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F443" s="3" t="s">
-        <v>202</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F443" s="3"/>
       <c r="G443" s="3"/>
       <c r="H443" s="5" t="s">
-        <v>257</v>
+        <v>391</v>
       </c>
       <c r="I443" s="5" t="s">
         <v>265</v>
       </c>
       <c r="J443" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K443" s="5">
-        <v>84</v>
+        <v>275</v>
       </c>
       <c r="L443" s="5">
-        <v>1206</v>
+        <v>1998</v>
       </c>
       <c r="M443" s="6"/>
     </row>
@@ -17648,29 +17826,27 @@
         <v>198</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>199</v>
+        <v>429</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F444" s="3" t="s">
-        <v>200</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="F444" s="3"/>
       <c r="G444" s="3"/>
       <c r="H444" s="5" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="I444" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J444" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K444" s="5">
-        <v>75</v>
-      </c>
-      <c r="L444" s="5">
-        <v>1248</v>
+        <v>250</v>
+      </c>
+      <c r="K444" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="L444" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="M444" s="6"/>
     </row>
@@ -17685,29 +17861,27 @@
         <v>198</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>199</v>
+        <v>429</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F445" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="F445" s="3"/>
       <c r="G445" s="3"/>
       <c r="H445" s="5" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="I445" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J445" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K445" s="5">
-        <v>75</v>
+        <v>250</v>
+      </c>
+      <c r="K445" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="L445" s="5">
-        <v>1248</v>
+        <v>6001</v>
       </c>
       <c r="M445" s="6"/>
     </row>
@@ -17722,33 +17896,31 @@
         <v>198</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>199</v>
+        <v>429</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F446" s="3" t="s">
-        <v>205</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F446" s="3"/>
       <c r="G446" s="3"/>
       <c r="H446" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I446" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J446" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K446" s="5">
-        <v>95</v>
-      </c>
-      <c r="L446" s="5">
-        <v>1248</v>
+        <v>250</v>
+      </c>
+      <c r="K446" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="L446" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="M446" s="6"/>
     </row>
-    <row r="447" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A447" s="13" t="s">
         <v>453</v>
       </c>
@@ -17759,33 +17931,31 @@
         <v>198</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>199</v>
+        <v>429</v>
       </c>
       <c r="E447" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F447" s="3" t="s">
-        <v>200</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="F447" s="3"/>
       <c r="G447" s="3"/>
       <c r="H447" s="5" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="I447" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J447" s="5" t="s">
         <v>258</v>
       </c>
       <c r="K447" s="5">
-        <v>100</v>
+        <v>432</v>
       </c>
       <c r="L447" s="5">
-        <v>1398</v>
+        <v>6162</v>
       </c>
       <c r="M447" s="6"/>
     </row>
-    <row r="448" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A448" s="13" t="s">
         <v>453</v>
       </c>
@@ -17796,33 +17966,31 @@
         <v>198</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>199</v>
+        <v>429</v>
       </c>
       <c r="E448" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F448" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="F448" s="3"/>
       <c r="G448" s="3"/>
       <c r="H448" s="5" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="I448" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J448" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K448" s="5">
-        <v>100</v>
-      </c>
-      <c r="L448" s="5">
-        <v>1398</v>
+      <c r="K448" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="L448" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="M448" s="6"/>
     </row>
-    <row r="449" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A449" s="13" t="s">
         <v>453</v>
       </c>
@@ -17833,29 +18001,27 @@
         <v>198</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>199</v>
+        <v>433</v>
       </c>
       <c r="E449" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F449" s="3" t="s">
-        <v>205</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="F449" s="3"/>
       <c r="G449" s="3"/>
       <c r="H449" s="5" t="s">
         <v>409</v>
       </c>
       <c r="I449" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J449" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K449" s="5">
-        <v>100</v>
-      </c>
-      <c r="L449" s="5">
-        <v>1398</v>
+      <c r="K449" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="L449" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="M449" s="6"/>
     </row>
@@ -17870,33 +18036,31 @@
         <v>198</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>199</v>
+        <v>435</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F450" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="F450" s="3"/>
       <c r="G450" s="3"/>
       <c r="H450" s="5" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="I450" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J450" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K450" s="5">
-        <v>94</v>
-      </c>
-      <c r="L450" s="5">
-        <v>1399</v>
+        <v>250</v>
+      </c>
+      <c r="K450" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="L450" s="5" t="s">
+        <v>350</v>
       </c>
       <c r="M450" s="6"/>
     </row>
-    <row r="451" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A451" s="13" t="s">
         <v>453</v>
       </c>
@@ -17907,33 +18071,31 @@
         <v>198</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>199</v>
+        <v>437</v>
       </c>
       <c r="E451" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F451" s="3" t="s">
-        <v>201</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="F451" s="3"/>
       <c r="G451" s="3"/>
       <c r="H451" s="5" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="I451" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J451" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K451" s="5">
-        <v>94</v>
-      </c>
-      <c r="L451" s="5">
-        <v>1399</v>
+        <v>250</v>
+      </c>
+      <c r="K451" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="L451" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="M451" s="6"/>
     </row>
-    <row r="452" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A452" s="13" t="s">
         <v>453</v>
       </c>
@@ -17944,29 +18106,27 @@
         <v>198</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>199</v>
+        <v>437</v>
       </c>
       <c r="E452" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F452" s="3" t="s">
-        <v>202</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="F452" s="3"/>
       <c r="G452" s="3"/>
       <c r="H452" s="5" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="I452" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J452" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K452" s="5">
-        <v>94</v>
+        <v>344</v>
       </c>
       <c r="L452" s="5">
-        <v>1399</v>
+        <v>5666</v>
       </c>
       <c r="M452" s="6"/>
     </row>
@@ -17981,10 +18141,10 @@
         <v>198</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
@@ -17998,10 +18158,10 @@
         <v>250</v>
       </c>
       <c r="K453" s="5">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="L453" s="5">
-        <v>1998</v>
+        <v>5967</v>
       </c>
       <c r="M453" s="6"/>
     </row>
@@ -18016,10 +18176,10 @@
         <v>198</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E454" s="3" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
@@ -18033,10 +18193,10 @@
         <v>250</v>
       </c>
       <c r="K454" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="L454" s="5" t="s">
-        <v>305</v>
+        <v>312</v>
+      </c>
+      <c r="L454" s="5">
+        <v>6001</v>
       </c>
       <c r="M454" s="6"/>
     </row>
@@ -18051,10 +18211,10 @@
         <v>198</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E455" s="3" t="s">
-        <v>430</v>
+        <v>226</v>
       </c>
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
@@ -18067,11 +18227,11 @@
       <c r="J455" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K455" s="5" t="s">
-        <v>310</v>
+      <c r="K455" s="5">
+        <v>755</v>
       </c>
       <c r="L455" s="5">
-        <v>6001</v>
+        <v>6162</v>
       </c>
       <c r="M455" s="6"/>
     </row>
@@ -18086,10 +18246,10 @@
         <v>198</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E456" s="3" t="s">
-        <v>141</v>
+        <v>439</v>
       </c>
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
@@ -18103,14 +18263,14 @@
         <v>250</v>
       </c>
       <c r="K456" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="L456" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
+      </c>
+      <c r="L456" s="5">
+        <v>6001</v>
       </c>
       <c r="M456" s="6"/>
     </row>
-    <row r="457" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A457" s="13" t="s">
         <v>453</v>
       </c>
@@ -18121,27 +18281,29 @@
         <v>198</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="E457" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F457" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="G457" s="3"/>
       <c r="H457" s="5" t="s">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="I457" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J457" s="5" t="s">
         <v>258</v>
       </c>
       <c r="K457" s="5">
-        <v>432</v>
+        <v>140</v>
       </c>
       <c r="L457" s="5">
-        <v>6162</v>
+        <v>1362</v>
       </c>
       <c r="M457" s="6"/>
     </row>
@@ -18156,15 +18318,17 @@
         <v>198</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="E458" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F458" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="G458" s="3"/>
       <c r="H458" s="5" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="I458" s="5" t="s">
         <v>260</v>
@@ -18172,11 +18336,11 @@
       <c r="J458" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K458" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="L458" s="5" t="s">
-        <v>307</v>
+      <c r="K458" s="5">
+        <v>140</v>
+      </c>
+      <c r="L458" s="5">
+        <v>1362</v>
       </c>
       <c r="M458" s="6"/>
     </row>
@@ -18191,31 +18355,33 @@
         <v>198</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E459" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F459" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="F459" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="G459" s="3"/>
       <c r="H459" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I459" s="5" t="s">
         <v>265</v>
       </c>
       <c r="J459" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K459" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="L459" s="5" t="s">
-        <v>451</v>
+        <v>258</v>
+      </c>
+      <c r="K459" s="5">
+        <v>140</v>
+      </c>
+      <c r="L459" s="5">
+        <v>1362</v>
       </c>
       <c r="M459" s="6"/>
     </row>
-    <row r="460" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A460" s="13" t="s">
         <v>453</v>
       </c>
@@ -18226,31 +18392,33 @@
         <v>198</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E460" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="F460" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="F460" s="3" t="s">
+        <v>441</v>
+      </c>
       <c r="G460" s="3"/>
       <c r="H460" s="5" t="s">
-        <v>452</v>
+        <v>257</v>
       </c>
       <c r="I460" s="5" t="s">
         <v>265</v>
       </c>
       <c r="J460" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K460" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="L460" s="5" t="s">
-        <v>350</v>
+        <v>258</v>
+      </c>
+      <c r="K460" s="5">
+        <v>140</v>
+      </c>
+      <c r="L460" s="5">
+        <v>1362</v>
       </c>
       <c r="M460" s="6"/>
     </row>
-    <row r="461" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A461" s="13" t="s">
         <v>453</v>
       </c>
@@ -18261,31 +18429,33 @@
         <v>198</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E461" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F461" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="F461" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="G461" s="3"/>
       <c r="H461" s="5" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="I461" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J461" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K461" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="L461" s="5" t="s">
-        <v>307</v>
+        <v>258</v>
+      </c>
+      <c r="K461" s="5">
+        <v>124</v>
+      </c>
+      <c r="L461" s="5">
+        <v>1598</v>
       </c>
       <c r="M461" s="6"/>
     </row>
-    <row r="462" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A462" s="13" t="s">
         <v>453</v>
       </c>
@@ -18296,31 +18466,33 @@
         <v>198</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E462" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F462" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="F462" s="3" t="s">
+        <v>442</v>
+      </c>
       <c r="G462" s="3"/>
       <c r="H462" s="5" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="I462" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J462" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K462" s="5">
-        <v>344</v>
+        <v>124</v>
       </c>
       <c r="L462" s="5">
-        <v>5666</v>
+        <v>1598</v>
       </c>
       <c r="M462" s="6"/>
     </row>
-    <row r="463" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A463" s="13" t="s">
         <v>453</v>
       </c>
@@ -18331,31 +18503,33 @@
         <v>198</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F463" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>443</v>
+      </c>
       <c r="G463" s="3"/>
       <c r="H463" s="5" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="I463" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J463" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K463" s="5">
-        <v>404</v>
+        <v>124</v>
       </c>
       <c r="L463" s="5">
-        <v>5967</v>
+        <v>1598</v>
       </c>
       <c r="M463" s="6"/>
     </row>
-    <row r="464" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A464" s="13" t="s">
         <v>453</v>
       </c>
@@ -18366,27 +18540,29 @@
         <v>198</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E464" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F464" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="G464" s="3"/>
       <c r="H464" s="5" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="I464" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J464" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K464" s="5" t="s">
-        <v>312</v>
+        <v>258</v>
+      </c>
+      <c r="K464" s="5">
+        <v>113</v>
       </c>
       <c r="L464" s="5">
-        <v>6001</v>
+        <v>1598</v>
       </c>
       <c r="M464" s="6"/>
     </row>
@@ -18401,31 +18577,33 @@
         <v>198</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E465" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F465" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="F465" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="G465" s="3"/>
       <c r="H465" s="5" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="I465" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="J465" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K465" s="5">
-        <v>755</v>
+        <v>124</v>
       </c>
       <c r="L465" s="5">
-        <v>6162</v>
+        <v>1598</v>
       </c>
       <c r="M465" s="6"/>
     </row>
-    <row r="466" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A466" s="13" t="s">
         <v>453</v>
       </c>
@@ -18436,27 +18614,29 @@
         <v>198</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F466" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="F466" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="G466" s="3"/>
       <c r="H466" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I466" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J466" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K466" s="5" t="s">
-        <v>310</v>
+        <v>258</v>
+      </c>
+      <c r="K466" s="5">
+        <v>124</v>
       </c>
       <c r="L466" s="5">
-        <v>6001</v>
+        <v>1598</v>
       </c>
       <c r="M466" s="6"/>
     </row>
@@ -18474,14 +18654,14 @@
         <v>440</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>204</v>
+        <v>445</v>
       </c>
       <c r="G467" s="3"/>
       <c r="H467" s="5" t="s">
-        <v>452</v>
+        <v>409</v>
       </c>
       <c r="I467" s="5" t="s">
         <v>260</v>
@@ -18490,10 +18670,10 @@
         <v>258</v>
       </c>
       <c r="K467" s="5">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="L467" s="5">
-        <v>1362</v>
+        <v>1598</v>
       </c>
       <c r="M467" s="6"/>
     </row>
@@ -18511,30 +18691,30 @@
         <v>440</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F468" s="3" t="s">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="G468" s="3"/>
       <c r="H468" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I468" s="5" t="s">
         <v>260</v>
       </c>
       <c r="J468" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K468" s="5">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="L468" s="5">
-        <v>1362</v>
+        <v>1598</v>
       </c>
       <c r="M468" s="6"/>
     </row>
-    <row r="469" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A469" s="13" t="s">
         <v>453</v>
       </c>
@@ -18548,30 +18728,30 @@
         <v>440</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="G469" s="3"/>
       <c r="H469" s="5" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="I469" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J469" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K469" s="5">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="L469" s="5">
-        <v>1362</v>
+        <v>1598</v>
       </c>
       <c r="M469" s="6"/>
     </row>
-    <row r="470" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A470" s="13" t="s">
         <v>453</v>
       </c>
@@ -18585,26 +18765,26 @@
         <v>440</v>
       </c>
       <c r="E470" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G470" s="3"/>
       <c r="H470" s="5" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="I470" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J470" s="5" t="s">
         <v>258</v>
       </c>
       <c r="K470" s="5">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="L470" s="5">
-        <v>1362</v>
+        <v>1598</v>
       </c>
       <c r="M470" s="6"/>
     </row>
@@ -18625,11 +18805,11 @@
         <v>239</v>
       </c>
       <c r="F471" s="3" t="s">
-        <v>239</v>
+        <v>447</v>
       </c>
       <c r="G471" s="3"/>
       <c r="H471" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I471" s="5" t="s">
         <v>260</v>
@@ -18645,7 +18825,7 @@
       </c>
       <c r="M471" s="6"/>
     </row>
-    <row r="472" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A472" s="13" t="s">
         <v>453</v>
       </c>
@@ -18659,30 +18839,30 @@
         <v>440</v>
       </c>
       <c r="E472" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>442</v>
+        <v>204</v>
       </c>
       <c r="G472" s="3"/>
       <c r="H472" s="5" t="s">
         <v>409</v>
       </c>
       <c r="I472" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J472" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K472" s="5">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="L472" s="5">
-        <v>1598</v>
+        <v>1998</v>
       </c>
       <c r="M472" s="6"/>
     </row>
-    <row r="473" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A473" s="13" t="s">
         <v>453</v>
       </c>
@@ -18696,26 +18876,26 @@
         <v>440</v>
       </c>
       <c r="E473" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F473" s="3" t="s">
-        <v>443</v>
+        <v>205</v>
       </c>
       <c r="G473" s="3"/>
       <c r="H473" s="5" t="s">
         <v>409</v>
       </c>
       <c r="I473" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J473" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K473" s="5">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="L473" s="5">
-        <v>1598</v>
+        <v>1998</v>
       </c>
       <c r="M473" s="6"/>
     </row>
@@ -18730,15 +18910,13 @@
         <v>198</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>440</v>
+        <v>206</v>
       </c>
       <c r="E474" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F474" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G474" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="F474" s="4"/>
+      <c r="G474" s="4"/>
       <c r="H474" s="5" t="s">
         <v>409</v>
       </c>
@@ -18746,17 +18924,17 @@
         <v>260</v>
       </c>
       <c r="J474" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K474" s="5">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="L474" s="5">
-        <v>1598</v>
+        <v>1998</v>
       </c>
       <c r="M474" s="6"/>
     </row>
-    <row r="475" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A475" s="13" t="s">
         <v>453</v>
       </c>
@@ -18767,29 +18945,27 @@
         <v>198</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>440</v>
+        <v>206</v>
       </c>
       <c r="E475" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F475" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="G475" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="F475" s="4"/>
+      <c r="G475" s="4"/>
       <c r="H475" s="5" t="s">
         <v>409</v>
       </c>
       <c r="I475" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J475" s="5" t="s">
         <v>258</v>
       </c>
       <c r="K475" s="5">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="L475" s="5">
-        <v>1598</v>
+        <v>1998</v>
       </c>
       <c r="M475" s="6"/>
     </row>
@@ -18804,15 +18980,13 @@
         <v>198</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>440</v>
+        <v>209</v>
       </c>
       <c r="E476" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F476" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G476" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="F476" s="4"/>
+      <c r="G476" s="4"/>
       <c r="H476" s="5" t="s">
         <v>409</v>
       </c>
@@ -18820,17 +18994,17 @@
         <v>260</v>
       </c>
       <c r="J476" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K476" s="5">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L476" s="5">
-        <v>1598</v>
+        <v>1998</v>
       </c>
       <c r="M476" s="6"/>
     </row>
-    <row r="477" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A477" s="13" t="s">
         <v>453</v>
       </c>
@@ -18841,33 +19015,31 @@
         <v>198</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>440</v>
+        <v>211</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F477" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G477" s="3"/>
+        <v>426</v>
+      </c>
+      <c r="F477" s="4"/>
+      <c r="G477" s="4"/>
       <c r="H477" s="5" t="s">
         <v>409</v>
       </c>
       <c r="I477" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J477" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K477" s="5">
-        <v>124</v>
-      </c>
-      <c r="L477" s="5">
-        <v>1598</v>
+        <v>250</v>
+      </c>
+      <c r="K477" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="L477" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="M477" s="6"/>
     </row>
-    <row r="478" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A478" s="13" t="s">
         <v>453</v>
       </c>
@@ -18878,33 +19050,31 @@
         <v>198</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>440</v>
+        <v>211</v>
       </c>
       <c r="E478" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F478" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G478" s="3"/>
+        <v>411</v>
+      </c>
+      <c r="F478" s="4"/>
+      <c r="G478" s="4"/>
       <c r="H478" s="5" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="I478" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J478" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K478" s="5">
-        <v>124</v>
-      </c>
-      <c r="L478" s="5">
-        <v>1598</v>
+        <v>250</v>
+      </c>
+      <c r="K478" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="L478" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="M478" s="6"/>
     </row>
-    <row r="479" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A479" s="13" t="s">
         <v>453</v>
       </c>
@@ -18915,29 +19085,27 @@
         <v>198</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>440</v>
+        <v>211</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F479" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="G479" s="3"/>
+        <v>413</v>
+      </c>
+      <c r="F479" s="4"/>
+      <c r="G479" s="4"/>
       <c r="H479" s="5" t="s">
         <v>409</v>
       </c>
       <c r="I479" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J479" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K479" s="5">
-        <v>117</v>
-      </c>
-      <c r="L479" s="5">
-        <v>1598</v>
+      <c r="K479" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="L479" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="M479" s="6"/>
     </row>
@@ -18952,17 +19120,17 @@
         <v>198</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>440</v>
+        <v>212</v>
       </c>
       <c r="E480" s="3" t="s">
-        <v>239</v>
+        <v>428</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>446</v>
+        <v>11</v>
       </c>
       <c r="G480" s="3"/>
       <c r="H480" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I480" s="5" t="s">
         <v>260</v>
@@ -18971,10 +19139,10 @@
         <v>258</v>
       </c>
       <c r="K480" s="5">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="L480" s="5">
-        <v>1598</v>
+        <v>1150</v>
       </c>
       <c r="M480" s="6"/>
     </row>
@@ -18989,13 +19157,13 @@
         <v>198</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>440</v>
+        <v>212</v>
       </c>
       <c r="E481" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F481" s="3" t="s">
-        <v>447</v>
+        <v>201</v>
       </c>
       <c r="G481" s="3"/>
       <c r="H481" s="5" t="s">
@@ -19008,10 +19176,10 @@
         <v>258</v>
       </c>
       <c r="K481" s="5">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="L481" s="5">
-        <v>1598</v>
+        <v>1150</v>
       </c>
       <c r="M481" s="6"/>
     </row>
@@ -19026,33 +19194,33 @@
         <v>198</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>440</v>
+        <v>213</v>
       </c>
       <c r="E482" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F482" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G482" s="3"/>
       <c r="H482" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I482" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J482" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K482" s="5">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="L482" s="5">
-        <v>1998</v>
+        <v>1598</v>
       </c>
       <c r="M482" s="6"/>
     </row>
-    <row r="483" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A483" s="13" t="s">
         <v>453</v>
       </c>
@@ -19063,29 +19231,29 @@
         <v>198</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>440</v>
+        <v>213</v>
       </c>
       <c r="E483" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G483" s="3"/>
       <c r="H483" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I483" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J483" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K483" s="5">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="L483" s="5">
-        <v>1998</v>
+        <v>1399</v>
       </c>
       <c r="M483" s="6"/>
     </row>
@@ -19100,27 +19268,29 @@
         <v>198</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F484" s="4"/>
-      <c r="G484" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="F484" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G484" s="1"/>
       <c r="H484" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I484" s="5" t="s">
         <v>260</v>
       </c>
       <c r="J484" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K484" s="5">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="L484" s="5">
-        <v>1998</v>
+        <v>1399</v>
       </c>
       <c r="M484" s="6"/>
     </row>
@@ -19135,27 +19305,29 @@
         <v>198</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E485" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F485" s="4"/>
-      <c r="G485" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G485" s="3"/>
       <c r="H485" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I485" s="5" t="s">
         <v>260</v>
       </c>
       <c r="J485" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K485" s="5">
-        <v>150</v>
-      </c>
-      <c r="L485" s="5">
-        <v>1998</v>
+        <v>250</v>
+      </c>
+      <c r="K485" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="L485" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="M485" s="6"/>
     </row>
@@ -19170,31 +19342,33 @@
         <v>198</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E486" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F486" s="4"/>
-      <c r="G486" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="F486" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G486" s="3"/>
       <c r="H486" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I486" s="5" t="s">
         <v>260</v>
       </c>
       <c r="J486" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K486" s="5">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="L486" s="5">
-        <v>1998</v>
+        <v>1598</v>
       </c>
       <c r="M486" s="6"/>
     </row>
-    <row r="487" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A487" s="13" t="s">
         <v>453</v>
       </c>
@@ -19205,31 +19379,33 @@
         <v>198</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E487" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F487" s="4"/>
-      <c r="G487" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="F487" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G487" s="3"/>
       <c r="H487" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I487" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J487" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K487" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="L487" s="5" t="s">
-        <v>313</v>
+      <c r="K487" s="5">
+        <v>109</v>
+      </c>
+      <c r="L487" s="5">
+        <v>1598</v>
       </c>
       <c r="M487" s="6"/>
     </row>
-    <row r="488" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A488" s="13" t="s">
         <v>453</v>
       </c>
@@ -19240,27 +19416,29 @@
         <v>198</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E488" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="F488" s="4"/>
-      <c r="G488" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="F488" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G488" s="3"/>
       <c r="H488" s="5" t="s">
         <v>409</v>
       </c>
       <c r="I488" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J488" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K488" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="L488" s="5" t="s">
-        <v>313</v>
+      <c r="K488" s="5">
+        <v>109</v>
+      </c>
+      <c r="L488" s="5">
+        <v>1598</v>
       </c>
       <c r="M488" s="6"/>
     </row>
@@ -19275,27 +19453,27 @@
         <v>198</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>413</v>
+        <v>217</v>
       </c>
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
       <c r="H489" s="5" t="s">
-        <v>409</v>
+        <v>235</v>
       </c>
       <c r="I489" s="5" t="s">
         <v>265</v>
       </c>
       <c r="J489" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K489" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="L489" s="5" t="s">
-        <v>307</v>
+        <v>258</v>
+      </c>
+      <c r="K489" s="5">
+        <v>108</v>
+      </c>
+      <c r="L489" s="5">
+        <v>1598</v>
       </c>
       <c r="M489" s="6"/>
     </row>
@@ -19310,10 +19488,10 @@
         <v>198</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E490" s="3" t="s">
-        <v>428</v>
+        <v>219</v>
       </c>
       <c r="F490" s="3" t="s">
         <v>11</v>
@@ -19329,14 +19507,14 @@
         <v>258</v>
       </c>
       <c r="K490" s="5">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="L490" s="5">
-        <v>1150</v>
+        <v>796</v>
       </c>
       <c r="M490" s="6"/>
     </row>
-    <row r="491" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A491" s="13" t="s">
         <v>453</v>
       </c>
@@ -19347,10 +19525,10 @@
         <v>198</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E491" s="3" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="F491" s="3" t="s">
         <v>201</v>
@@ -19360,16 +19538,16 @@
         <v>257</v>
       </c>
       <c r="I491" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J491" s="5" t="s">
         <v>258</v>
       </c>
       <c r="K491" s="5">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="L491" s="5">
-        <v>1150</v>
+        <v>796</v>
       </c>
       <c r="M491" s="6"/>
     </row>
@@ -19384,15 +19562,13 @@
         <v>198</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E492" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F492" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G492" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="F492" s="4"/>
+      <c r="G492" s="4"/>
       <c r="H492" s="5" t="s">
         <v>257</v>
       </c>
@@ -19403,14 +19579,14 @@
         <v>258</v>
       </c>
       <c r="K492" s="5">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="L492" s="5">
-        <v>1598</v>
+        <v>995</v>
       </c>
       <c r="M492" s="6"/>
     </row>
-    <row r="493" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A493" s="13" t="s">
         <v>453</v>
       </c>
@@ -19421,29 +19597,29 @@
         <v>198</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E493" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G493" s="3"/>
       <c r="H493" s="5" t="s">
         <v>257</v>
       </c>
       <c r="I493" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J493" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="K493" s="5">
-        <v>95</v>
+      <c r="K493" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="L493" s="5">
-        <v>1399</v>
+        <v>1300</v>
       </c>
       <c r="M493" s="6"/>
     </row>
@@ -19458,15 +19634,15 @@
         <v>198</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F494" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G494" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G494" s="3"/>
       <c r="H494" s="5" t="s">
         <v>257</v>
       </c>
@@ -19477,14 +19653,14 @@
         <v>258</v>
       </c>
       <c r="K494" s="5">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="L494" s="5">
-        <v>1399</v>
+        <v>995</v>
       </c>
       <c r="M494" s="6"/>
     </row>
-    <row r="495" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A495" s="13" t="s">
         <v>453</v>
       </c>
@@ -19495,33 +19671,33 @@
         <v>198</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E495" s="3" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G495" s="3"/>
       <c r="H495" s="5" t="s">
         <v>257</v>
       </c>
       <c r="I495" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J495" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K495" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="L495" s="5" t="s">
-        <v>303</v>
+        <v>258</v>
+      </c>
+      <c r="K495" s="5">
+        <v>66</v>
+      </c>
+      <c r="L495" s="5">
+        <v>995</v>
       </c>
       <c r="M495" s="6"/>
     </row>
-    <row r="496" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="13" t="s">
         <v>453</v>
       </c>
@@ -19532,33 +19708,33 @@
         <v>198</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E496" s="3" t="s">
-        <v>239</v>
+        <v>428</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G496" s="3"/>
       <c r="H496" s="5" t="s">
         <v>257</v>
       </c>
       <c r="I496" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J496" s="5" t="s">
         <v>258</v>
       </c>
       <c r="K496" s="5">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="L496" s="5">
-        <v>1598</v>
+        <v>1206</v>
       </c>
       <c r="M496" s="6"/>
     </row>
-    <row r="497" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A497" s="13" t="s">
         <v>453</v>
       </c>
@@ -19569,33 +19745,33 @@
         <v>198</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E497" s="3" t="s">
-        <v>239</v>
+        <v>428</v>
       </c>
       <c r="F497" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G497" s="3"/>
       <c r="H497" s="5" t="s">
         <v>257</v>
       </c>
       <c r="I497" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J497" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K497" s="5">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="L497" s="5">
-        <v>1598</v>
+        <v>1206</v>
       </c>
       <c r="M497" s="6"/>
     </row>
-    <row r="498" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A498" s="13" t="s">
         <v>453</v>
       </c>
@@ -19606,397 +19782,31 @@
         <v>198</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E498" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F498" s="7" t="s">
-        <v>215</v>
+        <v>428</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="G498" s="3"/>
       <c r="H498" s="5" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="I498" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J498" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K498" s="5">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="L498" s="5">
-        <v>1598</v>
+        <v>1206</v>
       </c>
       <c r="M498" s="6"/>
-    </row>
-    <row r="499" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A499" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B499" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C499" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D499" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E499" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F499" s="4"/>
-      <c r="G499" s="4"/>
-      <c r="H499" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="I499" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J499" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K499" s="5">
-        <v>108</v>
-      </c>
-      <c r="L499" s="5">
-        <v>1598</v>
-      </c>
-      <c r="M499" s="6"/>
-    </row>
-    <row r="500" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A500" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D500" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E500" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F500" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G500" s="3"/>
-      <c r="H500" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I500" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="J500" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K500" s="5">
-        <v>51</v>
-      </c>
-      <c r="L500" s="5">
-        <v>796</v>
-      </c>
-      <c r="M500" s="6"/>
-    </row>
-    <row r="501" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A501" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B501" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C501" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D501" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E501" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F501" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G501" s="3"/>
-      <c r="H501" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I501" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J501" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K501" s="5">
-        <v>51</v>
-      </c>
-      <c r="L501" s="5">
-        <v>796</v>
-      </c>
-      <c r="M501" s="6"/>
-    </row>
-    <row r="502" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A502" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B502" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D502" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E502" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F502" s="4"/>
-      <c r="G502" s="4"/>
-      <c r="H502" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I502" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J502" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K502" s="5">
-        <v>68</v>
-      </c>
-      <c r="L502" s="5">
-        <v>995</v>
-      </c>
-      <c r="M502" s="6"/>
-    </row>
-    <row r="503" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A503" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B503" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C503" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D503" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E503" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F503" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G503" s="3"/>
-      <c r="H503" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I503" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J503" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K503" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="L503" s="5">
-        <v>1300</v>
-      </c>
-      <c r="M503" s="6"/>
-    </row>
-    <row r="504" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A504" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B504" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C504" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D504" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E504" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F504" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G504" s="3"/>
-      <c r="H504" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I504" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="J504" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K504" s="5">
-        <v>66</v>
-      </c>
-      <c r="L504" s="5">
-        <v>995</v>
-      </c>
-      <c r="M504" s="6"/>
-    </row>
-    <row r="505" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A505" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C505" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D505" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E505" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F505" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G505" s="3"/>
-      <c r="H505" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I505" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J505" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K505" s="5">
-        <v>66</v>
-      </c>
-      <c r="L505" s="5">
-        <v>995</v>
-      </c>
-      <c r="M505" s="6"/>
-    </row>
-    <row r="506" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A506" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C506" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D506" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E506" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F506" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G506" s="3"/>
-      <c r="H506" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I506" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J506" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K506" s="5">
-        <v>81</v>
-      </c>
-      <c r="L506" s="5">
-        <v>1206</v>
-      </c>
-      <c r="M506" s="6"/>
-    </row>
-    <row r="507" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A507" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C507" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E507" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F507" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G507" s="3"/>
-      <c r="H507" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I507" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J507" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K507" s="5">
-        <v>81</v>
-      </c>
-      <c r="L507" s="5">
-        <v>1206</v>
-      </c>
-      <c r="M507" s="6"/>
-    </row>
-    <row r="508" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A508" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B508" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C508" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D508" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E508" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F508" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G508" s="3"/>
-      <c r="H508" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I508" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J508" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="K508" s="5">
-        <v>82</v>
-      </c>
-      <c r="L508" s="5">
-        <v>1206</v>
-      </c>
-      <c r="M508" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
